--- a/StructureDefinition-ext-R5-Person.communication.xlsx
+++ b/StructureDefinition-ext-R5-Person.communication.xlsx
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2026-02-06T19:17:19.5427077+00:00</t>
+    <t>2026-02-10T04:05:33.0136333+00:00</t>
   </si>
   <si>
     <t>Publisher</t>
@@ -98,7 +98,7 @@
 Across FHIR versions, the element set has been mapped as:
 *  R5: `Person.communication` 0..* `BackboneElement`
 Following are the generation technical comments:
-Element `Person.communication` is mapped to FHIR R4 structure `Person`, but has no target element specified.</t>
+Element `Person.communication` is will have a context of Person based on following the parent source element upwards and mapping to `Person`.</t>
   </si>
   <si>
     <t>Copyright</t>
@@ -140,7 +140,7 @@
     <t>Context</t>
   </si>
   <si>
-    <t>element:Element</t>
+    <t>element:Person</t>
   </si>
   <si>
     <t>ID</t>
@@ -346,7 +346,7 @@
   </si>
   <si>
     <t>Most systems in multilingual countries will want to convey language. Not all systems actually need the regional dialect. Element `Person.communication.language` is part of an existing definition because parent element `Person.communication` requires a cross-version extension.
-Element `Person.communication.language` is mapped to FHIR R4 structure `Person`, but has no target element specified.</t>
+Element `Person.communication.language` is will have a context of Person based on following the parent source element upwards and mapping to `Person`.</t>
   </si>
   <si>
     <t>Extension.extension:language.id</t>
@@ -432,7 +432,7 @@
   </si>
   <si>
     <t>People that master multiple languages up to certain level may prefer one or more, i.e. feel more confident in communicating in a particular language making other languages sort of a fall back method. Element `Person.communication.preferred` is part of an existing definition because parent element `Person.communication` requires a cross-version extension.
-Element `Person.communication.preferred` is mapped to FHIR R4 structure `Person`, but has no target element specified.</t>
+Element `Person.communication.preferred` is will have a context of Person based on following the parent source element upwards and mapping to `Person`.</t>
   </si>
   <si>
     <t>Extension.extension:preferred.id</t>

--- a/StructureDefinition-ext-R5-Person.communication.xlsx
+++ b/StructureDefinition-ext-R5-Person.communication.xlsx
@@ -13,7 +13,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="572" uniqueCount="141">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="572" uniqueCount="143">
   <si>
     <t>Property</t>
   </si>
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2026-02-10T04:05:33.0136333+00:00</t>
+    <t>2026-02-17T20:42:20.5370068+00:00</t>
   </si>
   <si>
     <t>Publisher</t>
@@ -98,7 +98,7 @@
 Across FHIR versions, the element set has been mapped as:
 *  R5: `Person.communication` 0..* `BackboneElement`
 Following are the generation technical comments:
-Element `Person.communication` is will have a context of Person based on following the parent source element upwards and mapping to `Person`.</t>
+Element `Person.communication` has a context of Person based on following the parent source element upwards and mapping to `Person`.</t>
   </si>
   <si>
     <t>Copyright</t>
@@ -346,7 +346,7 @@
   </si>
   <si>
     <t>Most systems in multilingual countries will want to convey language. Not all systems actually need the regional dialect. Element `Person.communication.language` is part of an existing definition because parent element `Person.communication` requires a cross-version extension.
-Element `Person.communication.language` is will have a context of Person based on following the parent source element upwards and mapping to `Person`.</t>
+Element `Person.communication.language` has a context of Person based on following the parent source element upwards and mapping to `Person`.</t>
   </si>
   <si>
     <t>Extension.extension:language.id</t>
@@ -393,6 +393,9 @@
     <t>The definition may point directly to a computable or human-readable definition of the extensibility codes, or it may be a logical URI as declared in some other specification. The definition SHALL be a URI for the Structure Definition defining the extension.</t>
   </si>
   <si>
+    <t>http://hl7.org/fhir/5.0/StructureDefinition/extension-Person.communication.language</t>
+  </si>
+  <si>
     <t>Extension.url</t>
   </si>
   <si>
@@ -432,7 +435,7 @@
   </si>
   <si>
     <t>People that master multiple languages up to certain level may prefer one or more, i.e. feel more confident in communicating in a particular language making other languages sort of a fall back method. Element `Person.communication.preferred` is part of an existing definition because parent element `Person.communication` requires a cross-version extension.
-Element `Person.communication.preferred` is will have a context of Person based on following the parent source element upwards and mapping to `Person`.</t>
+Element `Person.communication.preferred` has a context of Person based on following the parent source element upwards and mapping to `Person`.</t>
   </si>
   <si>
     <t>Extension.extension:preferred.id</t>
@@ -442,6 +445,9 @@
   </si>
   <si>
     <t>Extension.extension:preferred.url</t>
+  </si>
+  <si>
+    <t>http://hl7.org/fhir/5.0/StructureDefinition/extension-Person.communication.preferred</t>
   </si>
   <si>
     <t>Extension.extension:preferred.value[x]</t>
@@ -1608,7 +1614,7 @@
       </c>
       <c r="Q8" s="2"/>
       <c r="R8" t="s" s="2">
-        <v>101</v>
+        <v>120</v>
       </c>
       <c r="S8" t="s" s="2">
         <v>77</v>
@@ -1650,7 +1656,7 @@
         <v>77</v>
       </c>
       <c r="AF8" t="s" s="2">
-        <v>120</v>
+        <v>121</v>
       </c>
       <c r="AG8" t="s" s="2">
         <v>87</v>
@@ -1665,15 +1671,15 @@
         <v>77</v>
       </c>
       <c r="AK8" t="s" s="2">
-        <v>121</v>
+        <v>122</v>
       </c>
     </row>
     <row r="9">
       <c r="A9" t="s" s="2">
-        <v>122</v>
+        <v>123</v>
       </c>
       <c r="B9" t="s" s="2">
-        <v>123</v>
+        <v>124</v>
       </c>
       <c r="C9" s="2"/>
       <c r="D9" t="s" s="2">
@@ -1696,7 +1702,7 @@
         <v>77</v>
       </c>
       <c r="K9" t="s" s="2">
-        <v>124</v>
+        <v>125</v>
       </c>
       <c r="L9" t="s" s="2">
         <v>102</v>
@@ -1755,7 +1761,7 @@
         <v>77</v>
       </c>
       <c r="AF9" t="s" s="2">
-        <v>125</v>
+        <v>126</v>
       </c>
       <c r="AG9" t="s" s="2">
         <v>78</v>
@@ -1767,21 +1773,21 @@
         <v>77</v>
       </c>
       <c r="AJ9" t="s" s="2">
-        <v>126</v>
+        <v>127</v>
       </c>
       <c r="AK9" t="s" s="2">
-        <v>121</v>
+        <v>122</v>
       </c>
     </row>
     <row r="10">
       <c r="A10" t="s" s="2">
-        <v>127</v>
+        <v>128</v>
       </c>
       <c r="B10" t="s" s="2">
         <v>93</v>
       </c>
       <c r="C10" t="s" s="2">
-        <v>128</v>
+        <v>129</v>
       </c>
       <c r="D10" t="s" s="2">
         <v>77</v>
@@ -1806,16 +1812,16 @@
         <v>94</v>
       </c>
       <c r="L10" t="s" s="2">
-        <v>129</v>
+        <v>130</v>
       </c>
       <c r="M10" t="s" s="2">
-        <v>130</v>
+        <v>131</v>
       </c>
       <c r="N10" t="s" s="2">
-        <v>131</v>
+        <v>132</v>
       </c>
       <c r="O10" t="s" s="2">
-        <v>132</v>
+        <v>133</v>
       </c>
       <c r="P10" t="s" s="2">
         <v>77</v>
@@ -1884,7 +1890,7 @@
     </row>
     <row r="11">
       <c r="A11" t="s" s="2">
-        <v>133</v>
+        <v>134</v>
       </c>
       <c r="B11" t="s" s="2">
         <v>107</v>
@@ -1987,7 +1993,7 @@
     </row>
     <row r="12">
       <c r="A12" t="s" s="2">
-        <v>134</v>
+        <v>135</v>
       </c>
       <c r="B12" t="s" s="2">
         <v>109</v>
@@ -2092,7 +2098,7 @@
     </row>
     <row r="13">
       <c r="A13" t="s" s="2">
-        <v>135</v>
+        <v>136</v>
       </c>
       <c r="B13" t="s" s="2">
         <v>115</v>
@@ -2135,7 +2141,7 @@
       </c>
       <c r="Q13" s="2"/>
       <c r="R13" t="s" s="2">
-        <v>128</v>
+        <v>137</v>
       </c>
       <c r="S13" t="s" s="2">
         <v>77</v>
@@ -2177,7 +2183,7 @@
         <v>77</v>
       </c>
       <c r="AF13" t="s" s="2">
-        <v>120</v>
+        <v>121</v>
       </c>
       <c r="AG13" t="s" s="2">
         <v>87</v>
@@ -2192,15 +2198,15 @@
         <v>77</v>
       </c>
       <c r="AK13" t="s" s="2">
-        <v>121</v>
+        <v>122</v>
       </c>
     </row>
     <row r="14">
       <c r="A14" t="s" s="2">
-        <v>136</v>
+        <v>138</v>
       </c>
       <c r="B14" t="s" s="2">
-        <v>123</v>
+        <v>124</v>
       </c>
       <c r="C14" s="2"/>
       <c r="D14" t="s" s="2">
@@ -2223,16 +2229,16 @@
         <v>77</v>
       </c>
       <c r="K14" t="s" s="2">
-        <v>137</v>
+        <v>139</v>
       </c>
       <c r="L14" t="s" s="2">
-        <v>129</v>
+        <v>130</v>
       </c>
       <c r="M14" t="s" s="2">
-        <v>130</v>
+        <v>131</v>
       </c>
       <c r="N14" t="s" s="2">
-        <v>131</v>
+        <v>132</v>
       </c>
       <c r="O14" s="2"/>
       <c r="P14" t="s" s="2">
@@ -2282,7 +2288,7 @@
         <v>77</v>
       </c>
       <c r="AF14" t="s" s="2">
-        <v>125</v>
+        <v>126</v>
       </c>
       <c r="AG14" t="s" s="2">
         <v>78</v>
@@ -2294,18 +2300,18 @@
         <v>77</v>
       </c>
       <c r="AJ14" t="s" s="2">
-        <v>126</v>
+        <v>127</v>
       </c>
       <c r="AK14" t="s" s="2">
-        <v>121</v>
+        <v>122</v>
       </c>
     </row>
     <row r="15">
       <c r="A15" t="s" s="2">
-        <v>120</v>
+        <v>121</v>
       </c>
       <c r="B15" t="s" s="2">
-        <v>120</v>
+        <v>121</v>
       </c>
       <c r="C15" s="2"/>
       <c r="D15" t="s" s="2">
@@ -2387,7 +2393,7 @@
         <v>77</v>
       </c>
       <c r="AF15" t="s" s="2">
-        <v>120</v>
+        <v>121</v>
       </c>
       <c r="AG15" t="s" s="2">
         <v>87</v>
@@ -2402,15 +2408,15 @@
         <v>77</v>
       </c>
       <c r="AK15" t="s" s="2">
-        <v>121</v>
+        <v>122</v>
       </c>
     </row>
     <row r="16">
       <c r="A16" t="s" s="2">
-        <v>125</v>
+        <v>126</v>
       </c>
       <c r="B16" t="s" s="2">
-        <v>125</v>
+        <v>126</v>
       </c>
       <c r="C16" s="2"/>
       <c r="D16" t="s" s="2">
@@ -2433,13 +2439,13 @@
         <v>77</v>
       </c>
       <c r="K16" t="s" s="2">
-        <v>138</v>
+        <v>140</v>
       </c>
       <c r="L16" t="s" s="2">
-        <v>139</v>
+        <v>141</v>
       </c>
       <c r="M16" t="s" s="2">
-        <v>140</v>
+        <v>142</v>
       </c>
       <c r="N16" s="2"/>
       <c r="O16" s="2"/>
@@ -2490,7 +2496,7 @@
         <v>77</v>
       </c>
       <c r="AF16" t="s" s="2">
-        <v>125</v>
+        <v>126</v>
       </c>
       <c r="AG16" t="s" s="2">
         <v>78</v>
@@ -2502,10 +2508,10 @@
         <v>77</v>
       </c>
       <c r="AJ16" t="s" s="2">
-        <v>126</v>
+        <v>127</v>
       </c>
       <c r="AK16" t="s" s="2">
-        <v>121</v>
+        <v>122</v>
       </c>
     </row>
   </sheetData>

--- a/StructureDefinition-ext-R5-Person.communication.xlsx
+++ b/StructureDefinition-ext-R5-Person.communication.xlsx
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2026-02-17T20:42:20.5370068+00:00</t>
+    <t>2026-02-20T17:59:09.1776521+00:00</t>
   </si>
   <si>
     <t>Publisher</t>
@@ -125,7 +125,7 @@
     <t>Base Definition</t>
   </si>
   <si>
-    <t>http://hl7.org/fhir/StructureDefinition/Extension|4.0.1</t>
+    <t>http://hl7.org/fhir/StructureDefinition/Extension</t>
   </si>
   <si>
     <t>Abstract</t>

--- a/StructureDefinition-ext-R5-Person.communication.xlsx
+++ b/StructureDefinition-ext-R5-Person.communication.xlsx
@@ -13,7 +13,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="572" uniqueCount="143">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="572" uniqueCount="141">
   <si>
     <t>Property</t>
   </si>
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2026-02-20T17:59:09.1776521+00:00</t>
+    <t>2026-02-21T19:36:42.9229177+00:00</t>
   </si>
   <si>
     <t>Publisher</t>
@@ -125,7 +125,7 @@
     <t>Base Definition</t>
   </si>
   <si>
-    <t>http://hl7.org/fhir/StructureDefinition/Extension</t>
+    <t>http://hl7.org/fhir/StructureDefinition/Extension|4.0.1</t>
   </si>
   <si>
     <t>Abstract</t>
@@ -345,8 +345,7 @@
     <t>The structure aa-BB with this exact casing is one the most widely used notations for locale. However not all systems actually code this but instead have it as free text. Hence CodeableConcept instead of code as the data type.</t>
   </si>
   <si>
-    <t>Most systems in multilingual countries will want to convey language. Not all systems actually need the regional dialect. Element `Person.communication.language` is part of an existing definition because parent element `Person.communication` requires a cross-version extension.
-Element `Person.communication.language` has a context of Person based on following the parent source element upwards and mapping to `Person`.</t>
+    <t>Most systems in multilingual countries will want to convey language. Not all systems actually need the regional dialect. Element `Person.communication.language` has a context of Person based on following the parent source element upwards and mapping to `Person`.</t>
   </si>
   <si>
     <t>Extension.extension:language.id</t>
@@ -393,9 +392,6 @@
     <t>The definition may point directly to a computable or human-readable definition of the extensibility codes, or it may be a logical URI as declared in some other specification. The definition SHALL be a URI for the Structure Definition defining the extension.</t>
   </si>
   <si>
-    <t>http://hl7.org/fhir/5.0/StructureDefinition/extension-Person.communication.language</t>
-  </si>
-  <si>
     <t>Extension.url</t>
   </si>
   <si>
@@ -434,8 +430,7 @@
     <t>This language is specifically identified for communicating healthcare information.</t>
   </si>
   <si>
-    <t>People that master multiple languages up to certain level may prefer one or more, i.e. feel more confident in communicating in a particular language making other languages sort of a fall back method. Element `Person.communication.preferred` is part of an existing definition because parent element `Person.communication` requires a cross-version extension.
-Element `Person.communication.preferred` has a context of Person based on following the parent source element upwards and mapping to `Person`.</t>
+    <t>People that master multiple languages up to certain level may prefer one or more, i.e. feel more confident in communicating in a particular language making other languages sort of a fall back method. Element `Person.communication.preferred` has a context of Person based on following the parent source element upwards and mapping to `Person`.</t>
   </si>
   <si>
     <t>Extension.extension:preferred.id</t>
@@ -445,9 +440,6 @@
   </si>
   <si>
     <t>Extension.extension:preferred.url</t>
-  </si>
-  <si>
-    <t>http://hl7.org/fhir/5.0/StructureDefinition/extension-Person.communication.preferred</t>
   </si>
   <si>
     <t>Extension.extension:preferred.value[x]</t>
@@ -1614,72 +1606,72 @@
       </c>
       <c r="Q8" s="2"/>
       <c r="R8" t="s" s="2">
+        <v>101</v>
+      </c>
+      <c r="S8" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="T8" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="U8" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="V8" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="W8" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="X8" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="Y8" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="Z8" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AA8" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AB8" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AC8" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AD8" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AE8" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AF8" t="s" s="2">
         <v>120</v>
       </c>
-      <c r="S8" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="T8" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="U8" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="V8" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="W8" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="X8" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="Y8" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="Z8" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="AA8" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="AB8" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="AC8" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="AD8" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="AE8" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="AF8" t="s" s="2">
+      <c r="AG8" t="s" s="2">
+        <v>87</v>
+      </c>
+      <c r="AH8" t="s" s="2">
+        <v>87</v>
+      </c>
+      <c r="AI8" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AJ8" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AK8" t="s" s="2">
         <v>121</v>
-      </c>
-      <c r="AG8" t="s" s="2">
-        <v>87</v>
-      </c>
-      <c r="AH8" t="s" s="2">
-        <v>87</v>
-      </c>
-      <c r="AI8" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="AJ8" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="AK8" t="s" s="2">
-        <v>122</v>
       </c>
     </row>
     <row r="9">
       <c r="A9" t="s" s="2">
+        <v>122</v>
+      </c>
+      <c r="B9" t="s" s="2">
         <v>123</v>
-      </c>
-      <c r="B9" t="s" s="2">
-        <v>124</v>
       </c>
       <c r="C9" s="2"/>
       <c r="D9" t="s" s="2">
@@ -1702,7 +1694,7 @@
         <v>77</v>
       </c>
       <c r="K9" t="s" s="2">
-        <v>125</v>
+        <v>124</v>
       </c>
       <c r="L9" t="s" s="2">
         <v>102</v>
@@ -1761,7 +1753,7 @@
         <v>77</v>
       </c>
       <c r="AF9" t="s" s="2">
-        <v>126</v>
+        <v>125</v>
       </c>
       <c r="AG9" t="s" s="2">
         <v>78</v>
@@ -1773,21 +1765,21 @@
         <v>77</v>
       </c>
       <c r="AJ9" t="s" s="2">
-        <v>127</v>
+        <v>126</v>
       </c>
       <c r="AK9" t="s" s="2">
-        <v>122</v>
+        <v>121</v>
       </c>
     </row>
     <row r="10">
       <c r="A10" t="s" s="2">
-        <v>128</v>
+        <v>127</v>
       </c>
       <c r="B10" t="s" s="2">
         <v>93</v>
       </c>
       <c r="C10" t="s" s="2">
-        <v>129</v>
+        <v>128</v>
       </c>
       <c r="D10" t="s" s="2">
         <v>77</v>
@@ -1812,16 +1804,16 @@
         <v>94</v>
       </c>
       <c r="L10" t="s" s="2">
+        <v>129</v>
+      </c>
+      <c r="M10" t="s" s="2">
         <v>130</v>
       </c>
-      <c r="M10" t="s" s="2">
+      <c r="N10" t="s" s="2">
         <v>131</v>
       </c>
-      <c r="N10" t="s" s="2">
+      <c r="O10" t="s" s="2">
         <v>132</v>
-      </c>
-      <c r="O10" t="s" s="2">
-        <v>133</v>
       </c>
       <c r="P10" t="s" s="2">
         <v>77</v>
@@ -1890,7 +1882,7 @@
     </row>
     <row r="11">
       <c r="A11" t="s" s="2">
-        <v>134</v>
+        <v>133</v>
       </c>
       <c r="B11" t="s" s="2">
         <v>107</v>
@@ -1993,7 +1985,7 @@
     </row>
     <row r="12">
       <c r="A12" t="s" s="2">
-        <v>135</v>
+        <v>134</v>
       </c>
       <c r="B12" t="s" s="2">
         <v>109</v>
@@ -2098,7 +2090,7 @@
     </row>
     <row r="13">
       <c r="A13" t="s" s="2">
-        <v>136</v>
+        <v>135</v>
       </c>
       <c r="B13" t="s" s="2">
         <v>115</v>
@@ -2141,7 +2133,7 @@
       </c>
       <c r="Q13" s="2"/>
       <c r="R13" t="s" s="2">
-        <v>137</v>
+        <v>128</v>
       </c>
       <c r="S13" t="s" s="2">
         <v>77</v>
@@ -2183,30 +2175,30 @@
         <v>77</v>
       </c>
       <c r="AF13" t="s" s="2">
+        <v>120</v>
+      </c>
+      <c r="AG13" t="s" s="2">
+        <v>87</v>
+      </c>
+      <c r="AH13" t="s" s="2">
+        <v>87</v>
+      </c>
+      <c r="AI13" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AJ13" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AK13" t="s" s="2">
         <v>121</v>
-      </c>
-      <c r="AG13" t="s" s="2">
-        <v>87</v>
-      </c>
-      <c r="AH13" t="s" s="2">
-        <v>87</v>
-      </c>
-      <c r="AI13" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="AJ13" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="AK13" t="s" s="2">
-        <v>122</v>
       </c>
     </row>
     <row r="14">
       <c r="A14" t="s" s="2">
-        <v>138</v>
+        <v>136</v>
       </c>
       <c r="B14" t="s" s="2">
-        <v>124</v>
+        <v>123</v>
       </c>
       <c r="C14" s="2"/>
       <c r="D14" t="s" s="2">
@@ -2229,16 +2221,16 @@
         <v>77</v>
       </c>
       <c r="K14" t="s" s="2">
-        <v>139</v>
+        <v>137</v>
       </c>
       <c r="L14" t="s" s="2">
+        <v>129</v>
+      </c>
+      <c r="M14" t="s" s="2">
         <v>130</v>
       </c>
-      <c r="M14" t="s" s="2">
+      <c r="N14" t="s" s="2">
         <v>131</v>
-      </c>
-      <c r="N14" t="s" s="2">
-        <v>132</v>
       </c>
       <c r="O14" s="2"/>
       <c r="P14" t="s" s="2">
@@ -2288,7 +2280,7 @@
         <v>77</v>
       </c>
       <c r="AF14" t="s" s="2">
-        <v>126</v>
+        <v>125</v>
       </c>
       <c r="AG14" t="s" s="2">
         <v>78</v>
@@ -2300,18 +2292,18 @@
         <v>77</v>
       </c>
       <c r="AJ14" t="s" s="2">
-        <v>127</v>
+        <v>126</v>
       </c>
       <c r="AK14" t="s" s="2">
-        <v>122</v>
+        <v>121</v>
       </c>
     </row>
     <row r="15">
       <c r="A15" t="s" s="2">
-        <v>121</v>
+        <v>120</v>
       </c>
       <c r="B15" t="s" s="2">
-        <v>121</v>
+        <v>120</v>
       </c>
       <c r="C15" s="2"/>
       <c r="D15" t="s" s="2">
@@ -2393,30 +2385,30 @@
         <v>77</v>
       </c>
       <c r="AF15" t="s" s="2">
+        <v>120</v>
+      </c>
+      <c r="AG15" t="s" s="2">
+        <v>87</v>
+      </c>
+      <c r="AH15" t="s" s="2">
+        <v>87</v>
+      </c>
+      <c r="AI15" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AJ15" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AK15" t="s" s="2">
         <v>121</v>
-      </c>
-      <c r="AG15" t="s" s="2">
-        <v>87</v>
-      </c>
-      <c r="AH15" t="s" s="2">
-        <v>87</v>
-      </c>
-      <c r="AI15" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="AJ15" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="AK15" t="s" s="2">
-        <v>122</v>
       </c>
     </row>
     <row r="16">
       <c r="A16" t="s" s="2">
-        <v>126</v>
+        <v>125</v>
       </c>
       <c r="B16" t="s" s="2">
-        <v>126</v>
+        <v>125</v>
       </c>
       <c r="C16" s="2"/>
       <c r="D16" t="s" s="2">
@@ -2439,13 +2431,13 @@
         <v>77</v>
       </c>
       <c r="K16" t="s" s="2">
+        <v>138</v>
+      </c>
+      <c r="L16" t="s" s="2">
+        <v>139</v>
+      </c>
+      <c r="M16" t="s" s="2">
         <v>140</v>
-      </c>
-      <c r="L16" t="s" s="2">
-        <v>141</v>
-      </c>
-      <c r="M16" t="s" s="2">
-        <v>142</v>
       </c>
       <c r="N16" s="2"/>
       <c r="O16" s="2"/>
@@ -2496,7 +2488,7 @@
         <v>77</v>
       </c>
       <c r="AF16" t="s" s="2">
-        <v>126</v>
+        <v>125</v>
       </c>
       <c r="AG16" t="s" s="2">
         <v>78</v>
@@ -2508,10 +2500,10 @@
         <v>77</v>
       </c>
       <c r="AJ16" t="s" s="2">
-        <v>127</v>
+        <v>126</v>
       </c>
       <c r="AK16" t="s" s="2">
-        <v>122</v>
+        <v>121</v>
       </c>
     </row>
   </sheetData>
